--- a/output/Resultados/3.AsignacionTamMuestraUPMsEnCadaPanel/df_asignaNumUPMPanelRefrescoXEstrato.xlsx
+++ b/output/Resultados/3.AsignacionTamMuestraUPMsEnCadaPanel/df_asignaNumUPMPanelRefrescoXEstrato.xlsx
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -2801,7 +2801,7 @@
         </is>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -3491,7 +3491,7 @@
         </is>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="C212">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="C213">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="C214">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="C215">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="C216">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="C217">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="C218">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -3641,7 +3641,7 @@
         </is>
       </c>
       <c r="C219">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="C220">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C221">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="C222">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -3806,7 +3806,7 @@
         </is>
       </c>
       <c r="C230">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="C231">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="C232">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="C233">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="C234">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="C235">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="C236">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -3911,7 +3911,7 @@
         </is>
       </c>
       <c r="C237">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="C238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="C239">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -3956,7 +3956,7 @@
         </is>
       </c>
       <c r="C240">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="C241">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="C242">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -4001,7 +4001,7 @@
         </is>
       </c>
       <c r="C243">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="C244">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="C245">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="C246">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="C247">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248">
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="C248">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="C249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="C250">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -5261,7 +5261,7 @@
         </is>
       </c>
       <c r="C327">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="C328">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329">
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="C329">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -5306,7 +5306,7 @@
         </is>
       </c>
       <c r="C330">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="C331">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -5336,7 +5336,7 @@
         </is>
       </c>
       <c r="C332">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -5351,7 +5351,7 @@
         </is>
       </c>
       <c r="C333">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -5366,7 +5366,7 @@
         </is>
       </c>
       <c r="C334">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -5681,7 +5681,7 @@
         </is>
       </c>
       <c r="C355">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="356">
@@ -6956,7 +6956,7 @@
         </is>
       </c>
       <c r="C440">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="C441">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442">
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="C442">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="443">
@@ -7001,7 +7001,7 @@
         </is>
       </c>
       <c r="C443">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="444">
@@ -7316,7 +7316,7 @@
         </is>
       </c>
       <c r="C464">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="465">
@@ -7331,7 +7331,7 @@
         </is>
       </c>
       <c r="C465">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="466">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="C466">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="467">
@@ -7361,7 +7361,7 @@
         </is>
       </c>
       <c r="C467">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="468">
@@ -7376,7 +7376,7 @@
         </is>
       </c>
       <c r="C468">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="469">
@@ -7391,7 +7391,7 @@
         </is>
       </c>
       <c r="C469">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="470">
@@ -7406,7 +7406,7 @@
         </is>
       </c>
       <c r="C470">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="471">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="C471">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="472">
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="C472">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="473">
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="C473">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="474">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="C474">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="475">
@@ -7481,7 +7481,7 @@
         </is>
       </c>
       <c r="C475">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="476">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="C476">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="477">
@@ -7511,7 +7511,7 @@
         </is>
       </c>
       <c r="C477">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478">
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="C478">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="479">
@@ -7541,7 +7541,7 @@
         </is>
       </c>
       <c r="C479">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="480">
@@ -7556,7 +7556,7 @@
         </is>
       </c>
       <c r="C480">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="481">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="C481">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="482">
@@ -7781,7 +7781,7 @@
         </is>
       </c>
       <c r="C495">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="496">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="C496">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="497">
@@ -7811,7 +7811,7 @@
         </is>
       </c>
       <c r="C497">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="498">
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="C498">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="499">
@@ -7841,7 +7841,7 @@
         </is>
       </c>
       <c r="C499">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="500">
@@ -7856,7 +7856,7 @@
         </is>
       </c>
       <c r="C500">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="501">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="C501">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="502">
@@ -7886,7 +7886,7 @@
         </is>
       </c>
       <c r="C502">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="503">
@@ -8276,7 +8276,7 @@
         </is>
       </c>
       <c r="C528">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="529">
@@ -8291,7 +8291,7 @@
         </is>
       </c>
       <c r="C529">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="530">
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="C530">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="531">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="C531">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="532">
@@ -8336,7 +8336,7 @@
         </is>
       </c>
       <c r="C532">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="533">
@@ -8351,7 +8351,7 @@
         </is>
       </c>
       <c r="C533">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="534">
@@ -8366,7 +8366,7 @@
         </is>
       </c>
       <c r="C534">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="535">
@@ -8381,7 +8381,7 @@
         </is>
       </c>
       <c r="C535">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="536">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="C536">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="537">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="C566">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567">
@@ -8861,7 +8861,7 @@
         </is>
       </c>
       <c r="C567">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="568">
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="C568">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="569">
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="C569">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570">
@@ -8906,7 +8906,7 @@
         </is>
       </c>
       <c r="C570">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="571">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="C571">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="572">
@@ -8936,7 +8936,7 @@
         </is>
       </c>
       <c r="C572">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="573">
@@ -8951,7 +8951,7 @@
         </is>
       </c>
       <c r="C573">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574">
@@ -8966,7 +8966,7 @@
         </is>
       </c>
       <c r="C574">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="575">
@@ -8981,7 +8981,7 @@
         </is>
       </c>
       <c r="C575">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="576">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="C576">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="577">
@@ -9011,7 +9011,7 @@
         </is>
       </c>
       <c r="C577">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="578">
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="C578">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="579">
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="C674">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="675">
@@ -10481,7 +10481,7 @@
         </is>
       </c>
       <c r="C675">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="676">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="C676">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="677">
@@ -10511,7 +10511,7 @@
         </is>
       </c>
       <c r="C677">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="678">
@@ -10526,7 +10526,7 @@
         </is>
       </c>
       <c r="C678">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="679">
@@ -10541,7 +10541,7 @@
         </is>
       </c>
       <c r="C679">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="680">
@@ -10556,7 +10556,7 @@
         </is>
       </c>
       <c r="C680">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="681">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="C681">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="682">
@@ -10586,7 +10586,7 @@
         </is>
       </c>
       <c r="C682">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="683">
@@ -10601,7 +10601,7 @@
         </is>
       </c>
       <c r="C683">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="684">
@@ -10616,7 +10616,7 @@
         </is>
       </c>
       <c r="C684">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="685">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="C776">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="777">
@@ -12011,7 +12011,7 @@
         </is>
       </c>
       <c r="C777">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="778">
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="C778">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="779">
@@ -12041,7 +12041,7 @@
         </is>
       </c>
       <c r="C779">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="780">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="C811">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="812">
@@ -12536,7 +12536,7 @@
         </is>
       </c>
       <c r="C812">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="813">
@@ -12551,7 +12551,7 @@
         </is>
       </c>
       <c r="C813">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="814">
@@ -12566,7 +12566,7 @@
         </is>
       </c>
       <c r="C814">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="815">
@@ -12581,7 +12581,7 @@
         </is>
       </c>
       <c r="C815">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="816">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="C816">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="817">
@@ -12611,7 +12611,7 @@
         </is>
       </c>
       <c r="C817">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="818">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="C831">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="832">
@@ -12836,7 +12836,7 @@
         </is>
       </c>
       <c r="C832">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="833">
@@ -12851,7 +12851,7 @@
         </is>
       </c>
       <c r="C833">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="834">
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="C834">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="835">
@@ -12881,7 +12881,7 @@
         </is>
       </c>
       <c r="C835">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="836">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="C836">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="837">
@@ -12911,7 +12911,7 @@
         </is>
       </c>
       <c r="C837">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="838">
@@ -12926,7 +12926,7 @@
         </is>
       </c>
       <c r="C838">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="839">
@@ -12941,7 +12941,7 @@
         </is>
       </c>
       <c r="C839">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="840">
@@ -12956,7 +12956,7 @@
         </is>
       </c>
       <c r="C840">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="841">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="C841">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="842">
@@ -13616,7 +13616,7 @@
         </is>
       </c>
       <c r="C884">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="885">
@@ -13631,7 +13631,7 @@
         </is>
       </c>
       <c r="C885">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="886">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="C886">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="887">
@@ -13661,7 +13661,7 @@
         </is>
       </c>
       <c r="C887">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="888">
@@ -13676,7 +13676,7 @@
         </is>
       </c>
       <c r="C888">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="889">
@@ -13691,7 +13691,7 @@
         </is>
       </c>
       <c r="C889">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="890">
@@ -13706,7 +13706,7 @@
         </is>
       </c>
       <c r="C890">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="891">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="C891">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="892">
@@ -13736,7 +13736,7 @@
         </is>
       </c>
       <c r="C892">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="893">
@@ -13751,7 +13751,7 @@
         </is>
       </c>
       <c r="C893">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="894">
@@ -13766,7 +13766,7 @@
         </is>
       </c>
       <c r="C894">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="895">
@@ -13781,7 +13781,7 @@
         </is>
       </c>
       <c r="C895">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="896">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="C896">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="897">
@@ -13811,7 +13811,7 @@
         </is>
       </c>
       <c r="C897">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="898">
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="C898">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="899">
@@ -13841,7 +13841,7 @@
         </is>
       </c>
       <c r="C899">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="900">
@@ -13856,7 +13856,7 @@
         </is>
       </c>
       <c r="C900">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="901">
@@ -14081,7 +14081,7 @@
         </is>
       </c>
       <c r="C915">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="916">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="C916">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="917">
@@ -14111,7 +14111,7 @@
         </is>
       </c>
       <c r="C917">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="918">
@@ -14126,7 +14126,7 @@
         </is>
       </c>
       <c r="C918">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="919">
@@ -14141,7 +14141,7 @@
         </is>
       </c>
       <c r="C919">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="920">
@@ -14156,7 +14156,7 @@
         </is>
       </c>
       <c r="C920">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="921">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="C921">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="922">
@@ -14186,7 +14186,7 @@
         </is>
       </c>
       <c r="C922">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="923">
@@ -14501,7 +14501,7 @@
         </is>
       </c>
       <c r="C943">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="944">
@@ -14711,7 +14711,7 @@
         </is>
       </c>
       <c r="C957">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="958">
@@ -14726,7 +14726,7 @@
         </is>
       </c>
       <c r="C958">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="959">
@@ -14741,7 +14741,7 @@
         </is>
       </c>
       <c r="C959">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="960">
@@ -14756,7 +14756,7 @@
         </is>
       </c>
       <c r="C960">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="961">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="C961">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="962">
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="C962">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="963">
@@ -14801,7 +14801,7 @@
         </is>
       </c>
       <c r="C963">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="964">
@@ -14816,7 +14816,7 @@
         </is>
       </c>
       <c r="C964">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="965">
@@ -14831,7 +14831,7 @@
         </is>
       </c>
       <c r="C965">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="966">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="C966">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="967">
@@ -14861,7 +14861,7 @@
         </is>
       </c>
       <c r="C967">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="968">
@@ -14876,7 +14876,7 @@
         </is>
       </c>
       <c r="C968">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -14891,7 +14891,7 @@
         </is>
       </c>
       <c r="C969">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="970">
@@ -14906,7 +14906,7 @@
         </is>
       </c>
       <c r="C970">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="C971">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -14936,7 +14936,7 @@
         </is>
       </c>
       <c r="C972">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -14951,7 +14951,7 @@
         </is>
       </c>
       <c r="C973">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -14966,7 +14966,7 @@
         </is>
       </c>
       <c r="C974">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -14981,7 +14981,7 @@
         </is>
       </c>
       <c r="C975">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="C976">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -15011,7 +15011,7 @@
         </is>
       </c>
       <c r="C977">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="C978">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="C1010">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="C1011">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012">
@@ -15536,7 +15536,7 @@
         </is>
       </c>
       <c r="C1012">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -15551,7 +15551,7 @@
         </is>
       </c>
       <c r="C1013">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -15566,7 +15566,7 @@
         </is>
       </c>
       <c r="C1014">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -15581,7 +15581,7 @@
         </is>
       </c>
       <c r="C1015">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="C1016">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="C1017">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018">
@@ -15626,7 +15626,7 @@
         </is>
       </c>
       <c r="C1018">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -15641,7 +15641,7 @@
         </is>
       </c>
       <c r="C1019">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020">
@@ -15656,7 +15656,7 @@
         </is>
       </c>
       <c r="C1020">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="C1041">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1042">
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="C1042">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -16001,7 +16001,7 @@
         </is>
       </c>
       <c r="C1043">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044">
@@ -16016,7 +16016,7 @@
         </is>
       </c>
       <c r="C1044">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045">
@@ -16031,7 +16031,7 @@
         </is>
       </c>
       <c r="C1045">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="C1046">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047">
@@ -16061,7 +16061,7 @@
         </is>
       </c>
       <c r="C1047">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048">
@@ -16076,7 +16076,7 @@
         </is>
       </c>
       <c r="C1048">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049">
@@ -16091,7 +16091,7 @@
         </is>
       </c>
       <c r="C1049">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050">
@@ -16106,7 +16106,7 @@
         </is>
       </c>
       <c r="C1050">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="C1051">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="C1091">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1092">
@@ -16736,7 +16736,7 @@
         </is>
       </c>
       <c r="C1092">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1093">
@@ -16751,7 +16751,7 @@
         </is>
       </c>
       <c r="C1093">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1094">
@@ -16931,7 +16931,7 @@
         </is>
       </c>
       <c r="C1105">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1106">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="C1106">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1107">
@@ -16961,7 +16961,7 @@
         </is>
       </c>
       <c r="C1107">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -16976,7 +16976,7 @@
         </is>
       </c>
       <c r="C1108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -16991,7 +16991,7 @@
         </is>
       </c>
       <c r="C1109">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -17006,7 +17006,7 @@
         </is>
       </c>
       <c r="C1110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -17036,7 +17036,7 @@
         </is>
       </c>
       <c r="C1112">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -17051,7 +17051,7 @@
         </is>
       </c>
       <c r="C1113">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -17066,7 +17066,7 @@
         </is>
       </c>
       <c r="C1114">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -17081,7 +17081,7 @@
         </is>
       </c>
       <c r="C1115">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -17231,7 +17231,7 @@
         </is>
       </c>
       <c r="C1125">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="C1126">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1127">
@@ -17261,7 +17261,7 @@
         </is>
       </c>
       <c r="C1127">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1128">
@@ -17276,7 +17276,7 @@
         </is>
       </c>
       <c r="C1128">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1129">
@@ -17291,7 +17291,7 @@
         </is>
       </c>
       <c r="C1129">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1130">
@@ -17306,7 +17306,7 @@
         </is>
       </c>
       <c r="C1130">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1131">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="C1131">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1132">
@@ -17336,7 +17336,7 @@
         </is>
       </c>
       <c r="C1132">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1133">
@@ -17561,7 +17561,7 @@
         </is>
       </c>
       <c r="C1147">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1148">
@@ -17576,7 +17576,7 @@
         </is>
       </c>
       <c r="C1148">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1149">
@@ -17591,7 +17591,7 @@
         </is>
       </c>
       <c r="C1149">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1150">
@@ -17606,7 +17606,7 @@
         </is>
       </c>
       <c r="C1150">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1151">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="C1151">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1152">
@@ -17636,7 +17636,7 @@
         </is>
       </c>
       <c r="C1152">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1153">
@@ -18611,7 +18611,7 @@
         </is>
       </c>
       <c r="C1217">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1218">
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="C1218">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1219">
@@ -18641,7 +18641,7 @@
         </is>
       </c>
       <c r="C1219">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1220">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="C1231">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1232">
@@ -18836,7 +18836,7 @@
         </is>
       </c>
       <c r="C1232">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1233">
@@ -18851,7 +18851,7 @@
         </is>
       </c>
       <c r="C1233">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1234">
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="C1234">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1235">
@@ -18881,7 +18881,7 @@
         </is>
       </c>
       <c r="C1235">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1236">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="C1236">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1237">
